--- a/Data/Predictions/Logistic Regression/exclude_previous_rating_model_1/exclude_previous_rating_model_1_predictions.xlsx
+++ b/Data/Predictions/Logistic Regression/exclude_previous_rating_model_1/exclude_previous_rating_model_1_predictions.xlsx
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
